--- a/src/Rapport Fournisseur_1.xlsx
+++ b/src/Rapport Fournisseur_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O44"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,10 +496,20 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>PC</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>PVC</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Warning</t>
         </is>
@@ -510,11 +520,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>901</v>
+        <v>961</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>843091</t>
+          <t>011765</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -524,12 +534,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Avocat Hass / Vrac 20 pcs - 4 kg / Cat. I / Afrique du Sud</t>
+          <t>Melons / Vrac 11 pcs - 10 kg / 11 (1150-1350 g) / Cat. I / France</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -539,41 +549,47 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>373720</t>
+          <t>373721</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>901</v>
+        <v>961</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>121954</t>
+          <t>011765</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -583,12 +599,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>774</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Concombres / Vrac 12 pcs - 6,6 kg / 12M (400-500 g) / Cat. I / Pays-Bas</t>
+          <t>Melons / Vrac 11 pcs - 10 kg / 11 (1150-1350 g) / Cat. I / France</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -598,56 +614,62 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>373720</t>
+          <t>373721</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>901</v>
+        <v>961</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>031551</t>
+          <t>021195</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>C44</t>
+          <t>C58</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>774</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fruit de la passion / Vrac 36 pcs - 2 kg / Cat. I / Colombie</t>
+          <t>Choux-fleurs / Vrac 6 pcs - 8 kg / Cat. EXTRA / France</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -657,56 +679,62 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>373720</t>
+          <t>373721</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>1,40</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>901</v>
+        <v>961</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>043576</t>
+          <t>031285</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>C35</t>
+          <t>C40</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Mangues / Vrac 7 pcs - 4 kg / Cat. I / Côte d'Ivoire</t>
+          <t>Ananas Extra Sweet / Vrac 8 pcs - 10 kg / A8 (1500-1800 g) / Cat. I / Costa Rica</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -716,56 +744,62 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>373720</t>
+          <t>373721</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>901</v>
+        <v>961</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>011437</t>
+          <t>031285</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>C44</t>
+          <t>C40</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>774</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Melons / Vrac 15 pcs - 11 kg / 15L (650-800 g) / Cat. I / Espagne</t>
+          <t>Ananas Extra Sweet / Vrac 8 pcs - 10 kg / A8 (1500-1800 g) / Cat. I / Costa Rica</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -775,56 +809,62 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>373720</t>
+          <t>373721</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>901</v>
+        <v>961</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>062765</t>
+          <t>031551</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>C7</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Myrtilles / Barquettes 12x125 g / Cat. I / Maroc</t>
+          <t>Fruit de la passion / Vrac 36 pcs - 2 kg / Cat. I / Colombie</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -834,41 +874,47 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>373720</t>
+          <t>373721</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>901</v>
+        <v>961</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>100386</t>
+          <t>031595</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -878,12 +924,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>774</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Nectarines Jaunes / Vrac 4 kg / B (61-67 mm) / Cat. I / Espagne</t>
+          <t>Fruit de la passion / Vrac 28 pcs - 2 kg / Cat. I / Viet Nam</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -893,41 +939,47 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>373720</t>
+          <t>373721</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>901</v>
+        <v>961</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>078451</t>
+          <t>043935</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -937,12 +989,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>774</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Oranges / Vrac 15 kg / 7 / Cat. I / Egypte</t>
+          <t>Limes / Citrons verts / Vrac 48 pcs - 4,5 kg / 48 (63-68 mm) / Cat. I / Brésil</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -952,60 +1004,62 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>373720</t>
+          <t>373721</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0,80</t>
+          <t>0,40</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Ok</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Origine: Eurofel Afrique Du Sud Excel egypte </t>
-        </is>
-      </c>
+          <t>0,43</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>901</v>
+        <v>961</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>116631</t>
+          <t>145371</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>C44</t>
+          <t>C7</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tomates Allongées / Roma / Vrac 6 kg / G / 8 (67-82 mm) / Cat. I / France</t>
+          <t>Myrtilles / Barquettes 12x125 g / Cat. I / Pologne</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1015,56 +1069,66 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>373720</t>
+          <t>373721</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Origine: Eurofel Portugal Excel pologne </t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>901</v>
+        <v>961</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>123223</t>
+          <t>145371</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>C44</t>
+          <t>C7</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>774</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tomates Charnues / Vrac 7 kg / 8G (77-82 mm) / Cat. I / France</t>
+          <t>Myrtilles / Barquettes 12x125 g / Cat. I / Pologne</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1074,56 +1138,66 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>373720</t>
+          <t>373721</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Origine: Eurofel Portugal Excel pologne </t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>901</v>
+        <v>961</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>261578</t>
+          <t>077433</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>C15</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tomates grappe / Vrac 5 kg / Cat. I / Belgique</t>
+          <t>Poires Conférence / Vrac 4,5 kg / 75-80 mm / Cat. I / Belgique</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1133,100 +1207,112 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>373720</t>
+          <t>373721</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>901</v>
+        <v>961</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>MAJSER</t>
+          <t>078811</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>999</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>774</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>FRAIS LOGISTIQUE</t>
+          <t>Pommes de terre primeur / Vrac 13 kg / Cat. I / Italie</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>CARREFOUR SUPPLIER</t>
+          <t>MEYER GROUP</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>638561</t>
+          <t>373721</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>1,20</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>901</v>
+        <v>961</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>120171</t>
+          <t>098899</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1236,12 +1322,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Aubergines / Vrac 5 kg / M (300-400 g) / Cat. I / Belgique</t>
+          <t>Prunes Reine Claude / Vrac 5 kg / 35-40 / Cat. I / France</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1251,56 +1337,62 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>373720</t>
+          <t>373721</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>2,98</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>901</v>
+        <v>961</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>803977</t>
+          <t>098899</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>C27</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>774</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Courgettes / Vrac 9 kg / Cat. I / France</t>
+          <t>Prunes Reine Claude / Vrac 5 kg / 35-40 / Cat. I / France</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1310,56 +1402,62 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>373720</t>
+          <t>373721</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>2,98</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>901</v>
+        <v>961</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>140583</t>
+          <t>098934</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>C37</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Fraises / Barquettes 10x500 g / Cat. I / Espagne</t>
+          <t>Prune Mirabelle / Vrac 5 kg / 22+ / Cat. I / France</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1369,41 +1467,47 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>373720</t>
+          <t>373721</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>4,79</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>5,08</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>901</v>
+        <v>961</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>101621</t>
+          <t>098934</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1413,12 +1517,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>774</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Nectarines Blanches / Vrac 4 kg / B (61-67 mm) / Cat. I / Espagne</t>
+          <t>Prune Mirabelle / Vrac 5 kg / 22+ / Cat. I / France</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1428,45 +1532,47 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>373720</t>
+          <t>373721</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>4,79</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Ok</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pas d'origine: Excel espagne </t>
-        </is>
-      </c>
+          <t>5,08</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>901</v>
+        <v>961</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>099769</t>
+          <t>099190</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1476,12 +1582,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>774</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Pêches Jaunes / Plateau 4 kg / B (61-67 mm) / Cat. I / Espagne</t>
+          <t>Tomates rondes / Vrac 6 kg / 67+ / Cat. I / Belgique</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1491,41 +1597,47 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>373720</t>
+          <t>373721</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>1,20</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>901</v>
+        <v>961</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>120394</t>
+          <t>099782</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1535,12 +1647,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>774</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Poivrons Rouges / Vrac 5 kg / GG-A (90-110 mm) / Cat. I / Belgique</t>
+          <t>Pêches Jaunes / Vrac 4,5 kg / A26 (67-73 mm) / Cat. I / France</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1550,41 +1662,47 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>373720</t>
+          <t>373721</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>1,70</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>901</v>
+        <v>961</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>122546</t>
+          <t>100304</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1594,12 +1712,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>774</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tomates grappe / Vrac 10 kg / Cat. I / France</t>
+          <t>Pêches plates Blanches / Vrac 5 kg / AA (73-80 mm) / Cat. I / Espagne</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1609,41 +1727,47 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>373720</t>
+          <t>373721</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>901</v>
+        <v>961</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>116209</t>
+          <t>100414</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1653,12 +1777,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Asperges blanches / Vrac 5 kg / &gt;22 mm / Cat. I / France</t>
+          <t>Nectarines Jaunes / Vrac 4,5 kg / B (61-67 mm) / Cat. I / France</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1668,41 +1792,47 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>373720</t>
+          <t>373721</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>4,77</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>901</v>
+        <v>961</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>843120</t>
+          <t>100595</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1712,12 +1842,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Avocat Hass / Plateau 18 pcs - 4 kg / Cat. I / Pérou</t>
+          <t>Raisin Blanc sans pépin / Vrac 5 kg / Cat. I / Italie</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1727,56 +1857,62 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>373720</t>
+          <t>373721</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>3,72</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>901</v>
+        <v>961</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>011529</t>
+          <t>100903</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>C35</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>774</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Melons / Vrac 11 pcs - 13 kg / 11 (1150-1350 g) / Cat. I / Espagne</t>
+          <t>Champignon blanc (pied coupé) / Vrac 3 kg / Cat. I / Pologne</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1786,56 +1922,62 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>373720</t>
+          <t>373721</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>901</v>
+        <v>961</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>011385</t>
+          <t>101423</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>C40</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Melons / Vrac 12 pcs - 8 kg / 12Q (950-1150 g) / Cat. I / Espagne</t>
+          <t>Pomme Jonagored / 1 rang 4,5 kg / 15F (230-265) / Cat. I / France</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1845,41 +1987,47 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>373720</t>
+          <t>373721</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>1,70</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>901</v>
+        <v>961</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>120183</t>
+          <t>101423</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1889,12 +2037,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>774</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Aubergines / Vrac 5 kg / M (300-400 g) / Cat. I / Espagne</t>
+          <t>Pomme Jonagored / 1 rang 4,5 kg / 15F (230-265) / Cat. I / France</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1904,41 +2052,47 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>373720</t>
+          <t>373721</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0,90</t>
+          <t>1,70</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>901</v>
+        <v>961</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>101913</t>
+          <t>101565</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1948,12 +2102,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Poivrons Jaunes / Vrac 5 kg / GG-A (90-110 mm) / Cat. I / Belgique</t>
+          <t>Nectarines Blanches / Vrac 4,5 kg / B (61-67 mm) / Cat. I / France</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1963,41 +2117,47 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>373720</t>
+          <t>373721</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>901</v>
+        <v>961</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>114642</t>
+          <t>102158</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2007,12 +2167,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>774</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Bananes / Vrac 19 kg / Cat. I / Côte d'Ivoire</t>
+          <t>Pêches Blanches / Vrac 4,5 kg / A26 (67-73 mm) / Cat. I / France</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2022,41 +2182,47 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>373720</t>
+          <t>373721</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>1,70</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>901</v>
+        <v>961</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>081842</t>
+          <t>102981</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2066,12 +2232,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Carottes / Vrac 12 kg / Cat. I / France</t>
+          <t>Pomme Jazz™ / 1 rang 4 kg / 18 (201-240 g) / Cat. I / France</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2081,56 +2247,62 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>373720</t>
+          <t>373721</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>901</v>
+        <v>961</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>556800</t>
+          <t>105147</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>C15</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>774</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Champignon de Paris Blanc / Barquettes 12x200 g / Cat. I / Pologne</t>
+          <t>Abricot / Plateau 5 kg / AA (45-49 mm) / Cat. I / France</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2140,56 +2312,62 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>373720</t>
+          <t>373721</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>901</v>
+        <v>961</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>031285</t>
+          <t>114642</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>C40</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>774</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Ananas Extra Sweet / Vrac 8 pcs - 12 kg / A8 (1500-1800 g) / Cat. I / Costa Rica</t>
+          <t>Bananes / Vrac 19 kg / Cat. I / Côte d'Ivoire</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2199,41 +2377,51 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>373720</t>
+          <t>373721</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poids: Eurofel 19.5 Excel 19.0 </t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>901</v>
+        <v>961</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>099338</t>
+          <t>114644</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2243,12 +2431,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>774</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Champignon à farcir / Vrac 2 kg / Cat. I / Pologne</t>
+          <t>Bananes / Vrac 19 kg / Cat. I / France</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2258,41 +2446,47 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>373720</t>
+          <t>373721</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t>2,60</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>901</v>
+        <v>961</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>122114</t>
+          <t>116621</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2302,12 +2496,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>774</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Concombres / Plateau 12 pcs - 5,4 kg / 12G (500-600 g) / Cat. I / France</t>
+          <t>Poivrons Oranges / Vrac 5 kg / G-B (60-80 mm) / Cat. I / Pays-Bas</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2317,41 +2511,47 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>373720</t>
+          <t>373721</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>901</v>
+        <v>961</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>754190</t>
+          <t>116632</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2361,12 +2561,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Artichaut Blanc / Plateau 15 pcs - 7,3 kg / 15 pcs / Cat. I / France</t>
+          <t>Tomates Allongées / Roma / Vrac 6 kg / Cat. I / Pays-Bas</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2376,41 +2576,47 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>373720</t>
+          <t>373721</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>901</v>
+        <v>961</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>114644</t>
+          <t>116632</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2420,12 +2626,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>774</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Bananes / Vrac 19 kg / Cat. I / France</t>
+          <t>Tomates Allongées / Roma / Vrac 6 kg / Cat. I / Pays-Bas</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2435,56 +2641,62 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>373720</t>
+          <t>373721</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>901</v>
+        <v>961</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>617113</t>
+          <t>116648</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>774</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Fraises / Mini colis 1x1 kg / Cat. I / Espagne</t>
+          <t>Tomates Mélangées / Vrac 3,5 kg / Cat. I / France</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2494,56 +2706,62 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>373720</t>
+          <t>373721</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>3,42</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>901</v>
+        <v>961</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>011302</t>
+          <t>117147</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>C40</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Melons Charentais / - 12 pcs - 10 kg / 12L (800-950 g) / Cat. I / France</t>
+          <t>Patates douces / Vrac 6 kg / L (300-600g) / Cat. I / Afrique du Sud</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2553,14 +2771,14 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>373720</t>
+          <t>373721</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="L36" t="n">
@@ -2568,26 +2786,32 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>901</v>
+        <v>961</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>100304</t>
+          <t>117147</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2597,12 +2821,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>774</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Pêches plates Blanches / Vrac 5 kg / B (61-67 mm) / Cat. I / Espagne</t>
+          <t>Patates douces / Vrac 6 kg / L (300-600g) / Cat. I / Afrique du Sud</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2612,41 +2836,47 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>373720</t>
+          <t>373721</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>901</v>
+        <v>961</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>077433</t>
+          <t>118610</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2656,12 +2886,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>774</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Poires Conférence / Vrac 4,5 kg / 75-80 mm / Cat. I / Belgique</t>
+          <t>Raisins Red Globe / Vrac 6 kg / Cat. I / Italie</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2671,41 +2901,51 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>373720</t>
+          <t>373721</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>3,42</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poids: Eurofel 5.0 Excel 6.0 </t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>901</v>
+        <v>961</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>120958</t>
+          <t>120171</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2715,12 +2955,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>774</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Poivrons Verts / Vrac 5 kg / GG-B (80-100 mm) / Cat. I / Belgique</t>
+          <t>Aubergines / Vrac 5 kg / M (300-400 g) / Cat. I / Belgique</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2730,41 +2970,47 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>373720</t>
+          <t>373721</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>901</v>
+        <v>961</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>099432</t>
+          <t>120956</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2774,12 +3020,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Pomme Golden / 1 rang 4,5 kg / 15 (265-305 g) / Cat. I / France</t>
+          <t>Poivrons Rouges / Vrac 5 kg / GG-B (80-100 mm) / Cat. I / Pays-Bas</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2789,41 +3035,47 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>373720</t>
+          <t>373721</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>1,70</t>
+          <t>1,60</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>901</v>
+        <v>961</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>135788</t>
+          <t>120958</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2833,12 +3085,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Pomme Pink Lady® / Vrac 4,5 kg / Cat. I / France</t>
+          <t>Poivrons Verts / Vrac 5 kg / GG-B (80-100 mm) / Cat. I / Pologne</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2848,14 +3100,14 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>373720</t>
+          <t>373721</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>2,65</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="L41" t="n">
@@ -2863,26 +3115,32 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>901</v>
+        <v>961</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>099505</t>
+          <t>121963</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2892,12 +3150,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Pomme Royal Gala / 1 rang 4,5 kg / 16 F (230-270 g) / Cat. I / France</t>
+          <t>Concombres / Vrac 12 pcs - 5 kg / 12M (400-500 g) / Cat. I / Pays-Bas</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2907,41 +3165,47 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>373720</t>
+          <t>373721</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>901</v>
+        <v>961</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>146515</t>
+          <t>121963</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2951,12 +3215,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>774</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Pomme Chantecler / 1 rang 4,5 kg / 16 (230-270 g) / Cat. I / France</t>
+          <t>Concombres / Vrac 12 pcs - 5 kg / 12M (400-500 g) / Cat. I / Pays-Bas</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2966,41 +3230,47 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>373720</t>
+          <t>373721</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>901</v>
+        <v>961</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>099190</t>
+          <t>122546</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3010,12 +3280,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>774</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Tomates rondes / Vrac 6 kg / 67+ / Cat. I / Belgique</t>
+          <t>Tomates grappe / Vrac 10 kg / Cat. EXTRA / France</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3025,30 +3295,1145 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>373720</t>
+          <t>373721</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="L44" t="n">
+        <v>39</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>290724</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>1,70</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>961</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>123223</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Tomates Charnues / Vrac 7 kg / 8G (77-82 mm) / Cat. I / France</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>MEYER GROUP</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>373721</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>1,60</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>3</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>290724</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>1,76</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>961</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>124688</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Prune Rouge / Vrac 5 kg / 50-55 mm / Cat. I / France</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>MEYER GROUP</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>373721</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>2,77</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>3</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>290724</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>2,98</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>961</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>134926</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Piments Verts / Vrac 4 kg / Cat. I / Maroc</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>MEYER GROUP</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>373721</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>1,70</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>5</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>290724</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>1,86</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>961</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>134926</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Piments Verts / Vrac 4 kg / Cat. I / Maroc</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>MEYER GROUP</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>373721</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>1,70</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>2</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>290724</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>1,86</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>961</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>136825</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Kiwi Jaunes / Vrac 52 pcs - 5,7 kg / 33 (85-95g) / Cat. I / Nouvelle-Zélande</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>MEYER GROUP</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>373721</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>0,50</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>6</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>290724</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>0,53</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>961</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>150756</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Haricot Verts / Barquettes 12x250 g / Très fin (&lt;8 mm) / Cat. I / Tanzanie</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>MEYER GROUP</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>373721</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>1,49</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>2</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>290724</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>1,58</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas d'origine: Excel tanzanie </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>961</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>182953</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Framboises / Barquettes 12x125 g / Cat. I / Portugal</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>MEYER GROUP</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>373721</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>1,91</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>3</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>290724</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>961</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>182953</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Framboises / Barquettes 12x125 g / Cat. I / Portugal</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>MEYER GROUP</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>373721</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>1,91</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
         <v>1</v>
       </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>280524</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>Ok</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>290724</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>961</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>753960</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>C37</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Poireau / Vrac 10 kg / Cat. I / France</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>MEYER GROUP</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>373721</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>2,53</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>4</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>290724</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>2,53</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>961</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>754190</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Artichaut Blanc / Plateau 15 pcs - 7,3 kg / 15 pcs / Cat. I / France</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>MEYER GROUP</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>373721</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>0,85</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>8</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>290724</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>0,93</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>961</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>754190</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Artichaut Blanc / Plateau 15 pcs - 7,3 kg / 15 pcs / Cat. I / France</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>MEYER GROUP</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>373721</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>0,85</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>4</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>290724</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>0,93</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>961</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>803977</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>C27</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Courgettes / Vrac 9 kg / Cat. I / France</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>MEYER GROUP</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>373721</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>1,28</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>5</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>290724</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>1,43</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>961</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>803977</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>C27</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Courgettes / Vrac 9 kg / Cat. I / France</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>MEYER GROUP</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>373721</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>1,28</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>10</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>290724</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>1,43</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>961</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>843091</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Avocat Hass / Vrac 20 pcs - 4 kg / Cat. I / Pérou</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>MEYER GROUP</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>373721</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>0,82</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>15</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>290724</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>0,87</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>961</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>843120</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Avocat Hass / Plateau 18 pcs - 4 kg / Cat. I / Pérou</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>MEYER GROUP</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>373721</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>1,02</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>12</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>290724</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>1,08</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>961</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>843120</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Avocat Hass / Plateau 18 pcs - 4 kg / Cat. I / Pérou</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>MEYER GROUP</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>373721</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>1,02</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>27</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>290724</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>1,08</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>961</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>855766</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Pastèque / Vrac 6 pcs - 15 kg / 6 (3-4 kg) / Cat. I / Espagne</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>MEYER GROUP</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>373721</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>2,34</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>14</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>290724</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>2,67</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
